--- a/biology/Mycologie/Amanite_épaisse/Amanite_épaisse.xlsx
+++ b/biology/Mycologie/Amanite_épaisse/Amanite_épaisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amanite_%C3%A9paisse</t>
+          <t>Amanite_épaisse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanita excelsa, Amanita spissa
 L'Amanite épaisse, Amanita excelsa, synonyme : Amanita spissa, est une espèce de champignons du genre Amanita de la famille des Amanitaceae. Comestible, quoique médiocre, il peut très facilement être confondu avec des amanites toxiques comme Amanita pantherina.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amanite_%C3%A9paisse</t>
+          <t>Amanite_épaisse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore
 Le chapeau d'Amanita excelsa, brun terne à brun-gris, peut atteindre 15 cm de diamètre. Sa marge n'est pas striée, et il est parsemé de plaques grisâtres.
@@ -521,8 +535,6 @@
 Stipe
 Le pied qui peut mesurer jusqu'à 15 cm de hauteur pour 2-3 cm de diamètre, est blanchâtre, chiné de gris, il est pourvu d'un anneau blanchâtre et la base est bulbeuse en forme d'oignon. La chair, blanchâtre a une odeur de rave comme l'Amanite citrine et ne rosit pas aux blessures.
 L'Amanite épaisse pousse souvent en groupe en forêt, sous feuillus et sous conifères du début de l'été à la fin de l'automne.
-Comestibilité
-L'Amanite épaisse est un comestible médiocre que l'on s'abstiendra de consommer car il y a un grand risque de confusion avec l'Amanite panthère qui est toxique.
 </t>
         </is>
       </c>
@@ -533,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amanite_%C3%A9paisse</t>
+          <t>Amanite_épaisse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Confusions possibles</t>
+          <t>Description du sporophore</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>On peut confondre l'Amanite épaisse avec deux autres amanites :
-l'Amanite panthère(Amanita pantherina) qui présente sur le chapeau des flocons blanc pur, alors que les plaques qui parsèment le chapeau de l'Amanite épaisse sont grisâtres. Le bord du chapeau est strié pour l'Amanite panthère, alors qu'il ne l'est pas pour l'Amanite épaisse. La base du pied est différente. Elle présente un bourrelet chez l'Amanite panthère, et le pied est en fuseau chez l'Amanite épaisse ;
-l'Amanite rougissante ou Golmotte (Amanita rubescens) dont le chapeau a très souvent des reflets rosés, de plus la chair rosit aux blessures et à la cassure, phénomènes qui n'arrivent jamais avec l'Amanite épaisse. L'Amanite rougissante est un bon comestible que l'on consommera bien cuit, car elle contient des substances hémolytiques qui disparaissent à la cuisson (au moins 15 minutes).</t>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Amanite épaisse est un comestible médiocre que l'on s'abstiendra de consommer car il y a un grand risque de confusion avec l'Amanite panthère qui est toxique.
+</t>
         </is>
       </c>
     </row>
@@ -565,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amanite_%C3%A9paisse</t>
+          <t>Amanite_épaisse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +597,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On peut confondre l'Amanite épaisse avec deux autres amanites :
+l'Amanite panthère(Amanita pantherina) qui présente sur le chapeau des flocons blanc pur, alors que les plaques qui parsèment le chapeau de l'Amanite épaisse sont grisâtres. Le bord du chapeau est strié pour l'Amanite panthère, alors qu'il ne l'est pas pour l'Amanite épaisse. La base du pied est différente. Elle présente un bourrelet chez l'Amanite panthère, et le pied est en fuseau chez l'Amanite épaisse ;
+l'Amanite rougissante ou Golmotte (Amanita rubescens) dont le chapeau a très souvent des reflets rosés, de plus la chair rosit aux blessures et à la cassure, phénomènes qui n'arrivent jamais avec l'Amanite épaisse. L'Amanite rougissante est un bon comestible que l'on consommera bien cuit, car elle contient des substances hémolytiques qui disparaissent à la cuisson (au moins 15 minutes).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amanite_épaisse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanite_%C3%A9paisse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Agaricus excelsus Fr. 1821
 Agaricus spissus Fr. 1838
@@ -597,33 +650,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Amanite_%C3%A9paisse</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amanite_épaisse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Amanite_%C3%A9paisse</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 juin 2020)[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 juin 2020) :
 variété Amanita excelsa var. excelsa
 variété Amanita excelsa var. spissa (Fr.) Neville &amp; Poumerat</t>
         </is>
